--- a/MLMcorr.xlsx
+++ b/MLMcorr.xlsx
@@ -411,12 +411,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>64125</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>64125</t>
         </is>
       </c>
     </row>
@@ -428,7 +428,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12825</t>
         </is>
       </c>
     </row>
@@ -448,36 +448,36 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>ATSS</t>
+          <t>SesNum</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Attendance</t>
+          <t>Anxiety</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ATSS</t>
+          <t>SesNum</t>
         </is>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.427</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Attendance</t>
+          <t>Anxiety</t>
         </is>
       </c>
       <c r="B3">
-        <v>0.141</v>
+        <v>-0.357</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -499,33 +499,33 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>ATSS</t>
+          <t>SesNum</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Attendance</t>
+          <t>Anxiety</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ATSS</t>
+          <t>SesNum</t>
         </is>
       </c>
       <c r="C2">
-        <v>0.331</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Attendance</t>
+          <t>Anxiety</t>
         </is>
       </c>
       <c r="B3">
-        <v>0.037</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/MLMcorr.xlsx
+++ b/MLMcorr.xlsx
@@ -351,7 +351,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lavaan 0.6.16</t>
+          <t>lavaan 0.6.17</t>
         </is>
       </c>
     </row>
